--- a/vertaalspecificaties.xlsx
+++ b/vertaalspecificaties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Github\Geonovum\imx-digilab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7DC5246-9E94-4286-BFAD-E5CF9A8C9FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134885F0-E9DF-45B7-96BB-A2DCA38C325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D32FDD7-7249-42F8-B791-773E550E1E80}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
   <si>
     <t>IMBAG</t>
   </si>
@@ -109,6 +109,9 @@
     <t>attribuut van complextype</t>
   </si>
   <si>
+    <t>waarde</t>
+  </si>
+  <si>
     <t>ja</t>
   </si>
   <si>
@@ -124,15 +127,15 @@
     <t>is relatie</t>
   </si>
   <si>
-    <t>gerelateerdeOPenbareRuimte</t>
-  </si>
-  <si>
     <t>OpenbareRuimte</t>
   </si>
   <si>
     <t>attribuut van complextype of geneste relatie</t>
   </si>
   <si>
+    <t>Verblijfsobject</t>
+  </si>
+  <si>
     <t>update-sessie</t>
   </si>
   <si>
@@ -148,9 +151,6 @@
     <t>doel geometrieattribuut</t>
   </si>
   <si>
-    <t>zie uc 1</t>
-  </si>
-  <si>
     <t>Term</t>
   </si>
   <si>
@@ -236,13 +236,103 @@
   </si>
   <si>
     <t>maximale huurverhoging</t>
+  </si>
+  <si>
+    <t>identificatie verblijfsobject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMBAG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nummeraanduiding </t>
+  </si>
+  <si>
+    <t>heeftAlsHoofadres</t>
+  </si>
+  <si>
+    <t>BRP</t>
+  </si>
+  <si>
+    <t>OIN</t>
+  </si>
+  <si>
+    <t>BRK</t>
+  </si>
+  <si>
+    <t>BRI</t>
+  </si>
+  <si>
+    <t>NatuurlijkPersoon</t>
+  </si>
+  <si>
+    <t>NietNatuurlijkPersoon</t>
+  </si>
+  <si>
+    <t>naamOpenbaarRegister</t>
+  </si>
+  <si>
+    <t>gerelateerdeOpenbareRuimte</t>
+  </si>
+  <si>
+    <t>burger service nummer</t>
+  </si>
+  <si>
+    <t>Verzamelinkomen</t>
+  </si>
+  <si>
+    <t>Opkoopbescherming</t>
+  </si>
+  <si>
+    <t>KadastraalOnroerendeZaak</t>
+  </si>
+  <si>
+    <t>zaaknummer?</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>aankoopdatum</t>
+  </si>
+  <si>
+    <t>identificatie adresseerbaar object</t>
+  </si>
+  <si>
+    <t>WOZ-waarde</t>
+  </si>
+  <si>
+    <t>WOZ</t>
+  </si>
+  <si>
+    <t>vastgesteldewaarde</t>
+  </si>
+  <si>
+    <t>TerInschrijvingAangebodenStuk</t>
+  </si>
+  <si>
+    <t>tijdstipAanbieding</t>
+  </si>
+  <si>
+    <t>_OnroerendeZaak</t>
+  </si>
+  <si>
+    <t>kadastraleAanduiding</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +344,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -358,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,24 +774,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAC430B-206A-4FB1-92DC-213B6C44A00F}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="1" customWidth="1"/>
     <col min="12" max="14" width="14.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" customWidth="1"/>
@@ -705,14 +806,14 @@
     <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -750,7 +851,7 @@
     </row>
     <row r="3" spans="1:20" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>20</v>
@@ -762,10 +863,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -780,16 +881,16 @@
         <v>21</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>2</v>
@@ -823,14 +924,8 @@
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
+      <c r="J6" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>6</v>
@@ -853,22 +948,17 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="11"/>
       <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,25 +966,14 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D9" s="11"/>
       <c r="H9" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,25 +981,14 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="11"/>
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,114 +996,76 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="11"/>
       <c r="H11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="11"/>
       <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D13" s="11"/>
       <c r="H13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D14" s="11"/>
       <c r="H14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -1046,43 +1076,397 @@
         <v>56</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="11"/>
+      <c r="H16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
+      <c r="H18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="11"/>
+      <c r="H20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    </row>
+    <row r="24" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1096,7 +1480,7 @@
           <x14:formula1>
             <xm:f>Blad3!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:F44 K4:K44 E45:E155</xm:sqref>
+          <xm:sqref>E56:E166 K4:K55 E4:F55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1130,7 +1514,7 @@
     </row>
     <row r="3" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
@@ -1138,7 +1522,7 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>55</v>
@@ -1146,7 +1530,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -1178,7 +1562,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -1186,7 +1570,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -1226,7 +1610,7 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1234,7 +1618,7 @@
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
@@ -1242,7 +1626,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>50</v>
@@ -1250,7 +1634,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -1322,12 +1706,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
